--- a/GNSS_ACQ_BB_parameter_test/GNSS_ACQ_BB_parameter.xlsx
+++ b/GNSS_ACQ_BB_parameter_test/GNSS_ACQ_BB_parameter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="211">
   <si>
     <t xml:space="preserve">system</t>
   </si>
@@ -1161,6 +1161,15 @@
   </si>
   <si>
     <t xml:space="preserve">11,6,39,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/ucchip/KWQ/gps_test/1111/gnss_test/7_mdl_new_acqThre_nct26coh9_-147_gps_dopp10_10_0_0_para83_69_42_22_0_22_12_1_10_32_1163918_rxsc0_SLVL3.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/ucchip/KWQ/gps_test/1111/gnss_test/8_mdl_new8_acqThre_nct26coh9_-147_gps_dopp10_10_0_0_para83_69_42_22_0_22_12_1_10_32_1163918_rxsc0_SLVL3.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,5,39,18</t>
   </si>
   <si>
     <t xml:space="preserve">83 69 42 
@@ -1367,7 +1376,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1413,13 +1422,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66CC99"/>
-        <bgColor rgb="FF99FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9966"/>
-        <bgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1457,7 +1460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1754,15 +1757,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1832,7 +1843,7 @@
       <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFCC9966"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1859,15 +1870,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,12 +4705,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,30 +5147,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:155"/>
+  <dimension ref="1:163"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q136" activeCellId="0" sqref="Q136"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F139" activeCellId="0" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.39285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.26530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,6 +8275,8 @@
       <c r="E118" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0"/>
       <c r="J118" s="7" t="n">
         <v>0</v>
       </c>
@@ -8295,6 +8304,8 @@
       <c r="E119" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="H119" s="0"/>
+      <c r="I119" s="0"/>
       <c r="J119" s="7" t="n">
         <v>0.176991</v>
       </c>
@@ -8322,6 +8333,8 @@
       <c r="E120" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="H120" s="0"/>
+      <c r="I120" s="0"/>
       <c r="J120" s="7" t="n">
         <v>0.19354838</v>
       </c>
@@ -8488,6 +8501,8 @@
       <c r="E125" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
       <c r="J125" s="7" t="n">
         <v>0.0457</v>
       </c>
@@ -8515,6 +8530,8 @@
       <c r="E126" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="H126" s="0"/>
+      <c r="I126" s="0"/>
       <c r="J126" s="7" t="n">
         <v>0.0368</v>
       </c>
@@ -8542,6 +8559,8 @@
       <c r="E127" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="H127" s="0"/>
+      <c r="I127" s="0"/>
       <c r="J127" s="7" t="n">
         <v>0.2658</v>
       </c>
@@ -8569,6 +8588,8 @@
       <c r="E128" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="H128" s="0"/>
+      <c r="I128" s="0"/>
       <c r="J128" s="7" t="n">
         <v>0.0397</v>
       </c>
@@ -11517,7 +11538,7 @@
       <c r="N130" s="7" t="n">
         <v>0.16254</v>
       </c>
-      <c r="O130" s="73" t="n">
+      <c r="O130" s="0" t="n">
         <v>283</v>
       </c>
       <c r="P130" s="0" t="s">
@@ -11531,6 +11552,8 @@
       <c r="E131" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="H131" s="0"/>
+      <c r="I131" s="0"/>
       <c r="J131" s="7" t="n">
         <v>0.253164</v>
       </c>
@@ -11546,7 +11569,7 @@
       <c r="N131" s="7" t="n">
         <v>0.23104</v>
       </c>
-      <c r="O131" s="73" t="n">
+      <c r="O131" s="0" t="n">
         <v>1108</v>
       </c>
       <c r="P131" s="0" t="s">
@@ -11554,34 +11577,34 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="74"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E132" s="74" t="n">
+      <c r="B132" s="73"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E132" s="73" t="n">
         <v>20</v>
       </c>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="76" t="n">
+      <c r="F132" s="73"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="75" t="n">
         <v>0.278846</v>
       </c>
-      <c r="K132" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" s="76" t="n">
+      <c r="K132" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" s="75" t="n">
         <v>0.091346</v>
       </c>
-      <c r="M132" s="74" t="n">
+      <c r="M132" s="73" t="n">
         <v>208</v>
       </c>
-      <c r="N132" s="76" t="n">
+      <c r="N132" s="75" t="n">
         <v>0.17887</v>
       </c>
-      <c r="O132" s="73" t="n">
+      <c r="O132" s="0" t="n">
         <v>1297</v>
       </c>
       <c r="P132" s="0" t="s">
@@ -11589,34 +11612,34 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E133" s="74" t="n">
+      <c r="B133" s="73"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E133" s="73" t="n">
         <v>20</v>
       </c>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="76" t="n">
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="75" t="n">
         <v>0.185897</v>
       </c>
-      <c r="K133" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" s="76" t="n">
+      <c r="K133" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" s="75" t="n">
         <v>0.1153846</v>
       </c>
-      <c r="M133" s="74" t="n">
+      <c r="M133" s="73" t="n">
         <v>156</v>
       </c>
-      <c r="N133" s="76" t="n">
+      <c r="N133" s="75" t="n">
         <v>0.29087</v>
       </c>
-      <c r="O133" s="73" t="n">
+      <c r="O133" s="0" t="n">
         <v>581</v>
       </c>
       <c r="P133" s="0" t="s">
@@ -11624,34 +11647,34 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="74"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E134" s="74" t="n">
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E134" s="73" t="n">
         <v>20</v>
       </c>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="76" t="n">
+      <c r="F134" s="73"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75" t="n">
         <v>0.24516</v>
       </c>
-      <c r="K134" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" s="76" t="n">
+      <c r="K134" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" s="75" t="n">
         <v>0.12258</v>
       </c>
-      <c r="M134" s="74" t="n">
+      <c r="M134" s="73" t="n">
         <v>155</v>
       </c>
-      <c r="N134" s="76" t="n">
+      <c r="N134" s="75" t="n">
         <v>0.13778</v>
       </c>
-      <c r="O134" s="73" t="n">
+      <c r="O134" s="0" t="n">
         <v>1183</v>
       </c>
       <c r="P134" s="0" t="s">
@@ -11659,34 +11682,34 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E135" s="74" t="n">
+      <c r="B135" s="73"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73" t="n">
+        <v>9</v>
+      </c>
+      <c r="E135" s="73" t="n">
         <v>20</v>
       </c>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="75"/>
-      <c r="J135" s="76" t="n">
+      <c r="F135" s="73"/>
+      <c r="G135" s="73"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="75" t="n">
         <v>0.230769</v>
       </c>
-      <c r="K135" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" s="76" t="n">
+      <c r="K135" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" s="75" t="n">
         <v>0.1346153</v>
       </c>
-      <c r="M135" s="74" t="n">
+      <c r="M135" s="73" t="n">
         <v>156</v>
       </c>
-      <c r="N135" s="76" t="n">
+      <c r="N135" s="75" t="n">
         <v>0.1174</v>
       </c>
-      <c r="O135" s="73" t="n">
+      <c r="O135" s="0" t="n">
         <v>1448</v>
       </c>
       <c r="P135" s="0" t="s">
@@ -11694,533 +11717,699 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E136" s="74" t="n">
+      <c r="B136" s="73"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="76" t="n">
+        <v>9</v>
+      </c>
+      <c r="E136" s="76" t="n">
         <v>26</v>
       </c>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="1" t="s">
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="J136" s="76"/>
-      <c r="K136" s="76"/>
-      <c r="L136" s="76"/>
-      <c r="M136" s="74"/>
-      <c r="N136" s="76"/>
-      <c r="O136" s="73"/>
+      <c r="J136" s="75" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K136" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="75" t="n">
+        <v>0.10365853</v>
+      </c>
+      <c r="M136" s="73" t="n">
+        <v>164</v>
+      </c>
+      <c r="N136" s="75" t="n">
+        <v>0.13972</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>1367</v>
+      </c>
+      <c r="P136" s="0" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="E137" s="74" t="n">
+      <c r="B137" s="73"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="76" t="n">
+        <v>9</v>
+      </c>
+      <c r="E137" s="76" t="n">
         <v>26</v>
       </c>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="75"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="77"/>
       <c r="I137" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="J137" s="76"/>
-      <c r="K137" s="76"/>
-      <c r="L137" s="76"/>
-      <c r="M137" s="74"/>
-      <c r="N137" s="76"/>
-      <c r="O137" s="73"/>
+      <c r="J137" s="75" t="n">
+        <v>0.219354</v>
+      </c>
+      <c r="K137" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" s="75" t="n">
+        <v>0.148387</v>
+      </c>
+      <c r="M137" s="73" t="n">
+        <v>155</v>
+      </c>
+      <c r="N137" s="75" t="n">
+        <v>0.17265</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="P137" s="0" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="73"/>
-    </row>
-    <row r="139" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="30"/>
-      <c r="O139" s="73"/>
-    </row>
-    <row r="140" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="n">
-        <v>-147</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E140" s="0" t="n">
+      <c r="B138" s="73"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" s="78" t="n">
         <v>26</v>
       </c>
-      <c r="F140" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H140" s="1" t="n">
-        <v>40</v>
-      </c>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="79"/>
+      <c r="I138" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="75"/>
+      <c r="M138" s="73"/>
+      <c r="N138" s="75"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="73"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="E139" s="78" t="n">
+        <v>26</v>
+      </c>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="J139" s="75"/>
+      <c r="K139" s="75"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="73"/>
+      <c r="N139" s="75"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="73"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="E140" s="78" t="n">
+        <v>26</v>
+      </c>
+      <c r="F140" s="54"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="77"/>
       <c r="I140" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J140" s="7" t="n">
+      <c r="J140" s="75"/>
+      <c r="K140" s="75"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="73"/>
+      <c r="N140" s="75"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="73"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="E141" s="78" t="n">
+        <v>26</v>
+      </c>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J141" s="75"/>
+      <c r="K141" s="75"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="73"/>
+      <c r="N141" s="75"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="73"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="75"/>
+      <c r="K142" s="75"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="73"/>
+      <c r="N142" s="75"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="73"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="75"/>
+      <c r="K143" s="75"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="75"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="73"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="75"/>
+      <c r="K144" s="75"/>
+      <c r="L144" s="75"/>
+      <c r="M144" s="73"/>
+      <c r="N144" s="75"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="73"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
+      <c r="J145" s="75"/>
+      <c r="K145" s="75"/>
+      <c r="L145" s="75"/>
+      <c r="M145" s="73"/>
+      <c r="N145" s="75"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="73"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="75"/>
+      <c r="L146" s="75"/>
+      <c r="M146" s="73"/>
+      <c r="N146" s="75"/>
+    </row>
+    <row r="147" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="O147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="n">
+        <v>-147</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F148" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H148" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J148" s="7" t="n">
         <v>0.2560975</v>
       </c>
-      <c r="K140" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" s="7" t="n">
+      <c r="K148" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" s="7" t="n">
         <v>0.134146</v>
       </c>
-      <c r="M140" s="73" t="n">
+      <c r="M148" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="N140" s="7" t="n">
+      <c r="N148" s="7" t="n">
         <v>0.08733</v>
       </c>
-      <c r="O140" s="73"/>
-      <c r="P140" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="J141" s="7" t="n">
-        <v>0.24038</v>
-      </c>
-      <c r="K141" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" s="7" t="n">
-        <v>0.0961538</v>
-      </c>
-      <c r="M141" s="73" t="n">
-        <v>104</v>
-      </c>
-      <c r="N141" s="7" t="n">
-        <v>0.10778</v>
-      </c>
-      <c r="O141" s="73"/>
-      <c r="P141" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D142" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E142" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J142" s="7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K142" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" s="7" t="n">
-        <v>0.1346</v>
-      </c>
-      <c r="M142" s="73" t="n">
-        <v>104</v>
-      </c>
-      <c r="N142" s="7" t="n">
-        <v>0.06368</v>
-      </c>
-      <c r="O142" s="73"/>
-      <c r="P142" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D143" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J143" s="7" t="n">
-        <v>0.19708</v>
-      </c>
-      <c r="K143" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" s="7" t="n">
-        <v>0.13868</v>
-      </c>
-      <c r="M143" s="73" t="n">
-        <v>137</v>
-      </c>
-      <c r="N143" s="7" t="n">
-        <v>0.12937</v>
-      </c>
-      <c r="O143" s="73"/>
-      <c r="P143" s="0" t="s">
+      <c r="P148" s="0" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E144" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J144" s="7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K144" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M144" s="73" t="n">
-        <v>25</v>
-      </c>
-      <c r="N144" s="7" t="n">
-        <v>0.03863</v>
-      </c>
-      <c r="O144" s="73"/>
-      <c r="P144" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E145" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J145" s="7" t="n">
-        <v>0.3333333</v>
-      </c>
-      <c r="K145" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" s="7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M145" s="73" t="n">
-        <v>24</v>
-      </c>
-      <c r="N145" s="7" t="n">
-        <v>0.06628</v>
-      </c>
-      <c r="O145" s="73"/>
-      <c r="P145" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E146" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J146" s="7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K146" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" s="7" t="n">
-        <v>0.083333</v>
-      </c>
-      <c r="M146" s="73" t="n">
-        <v>24</v>
-      </c>
-      <c r="N146" s="7" t="n">
-        <v>0.02959</v>
-      </c>
-      <c r="O146" s="73"/>
-      <c r="P146" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J147" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" s="7" t="n">
-        <v>0.00748</v>
-      </c>
-      <c r="O147" s="73"/>
-      <c r="P147" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E148" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J148" s="7" t="n">
-        <v>0.173913</v>
-      </c>
-      <c r="K148" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" s="7" t="n">
-        <v>0.30434</v>
-      </c>
-      <c r="M148" s="73" t="n">
-        <v>23</v>
-      </c>
-      <c r="N148" s="7" t="n">
-        <v>0.04272</v>
-      </c>
-      <c r="O148" s="73"/>
-      <c r="P148" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J149" s="7" t="n">
+        <v>0.24038</v>
+      </c>
+      <c r="K149" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" s="7" t="n">
+        <v>0.0961538</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="N149" s="7" t="n">
+        <v>0.10778</v>
+      </c>
+      <c r="P149" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J150" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K150" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" s="7" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="N150" s="7" t="n">
+        <v>0.06368</v>
+      </c>
+      <c r="P150" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J151" s="7" t="n">
+        <v>0.19708</v>
+      </c>
+      <c r="K151" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" s="7" t="n">
+        <v>0.13868</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="N151" s="7" t="n">
+        <v>0.12937</v>
+      </c>
+      <c r="P151" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J152" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K152" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M152" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N152" s="7" t="n">
+        <v>0.03863</v>
+      </c>
+      <c r="P152" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J153" s="7" t="n">
+        <v>0.3333333</v>
+      </c>
+      <c r="K153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" s="7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N153" s="7" t="n">
+        <v>0.06628</v>
+      </c>
+      <c r="P153" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E154" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J154" s="7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K154" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" s="7" t="n">
+        <v>0.083333</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N154" s="7" t="n">
+        <v>0.02959</v>
+      </c>
+      <c r="P154" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J155" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" s="7" t="n">
+        <v>0.00748</v>
+      </c>
+      <c r="P155" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E156" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J149" s="7" t="n">
+      <c r="J156" s="7" t="n">
+        <v>0.173913</v>
+      </c>
+      <c r="K156" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" s="7" t="n">
+        <v>0.30434</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N156" s="7" t="n">
+        <v>0.04272</v>
+      </c>
+      <c r="P156" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J157" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="K149" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" s="7" t="n">
+      <c r="K157" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" s="7" t="n">
         <v>0.114285</v>
       </c>
-      <c r="M149" s="73" t="n">
+      <c r="M157" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="N149" s="7" t="n">
+      <c r="N157" s="7" t="n">
         <v>0.05941</v>
       </c>
-      <c r="O149" s="73"/>
-      <c r="P149" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="n">
+      <c r="P157" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D150" s="78" t="n">
+      <c r="D158" s="80" t="n">
         <v>19</v>
       </c>
-      <c r="E150" s="78" t="n">
+      <c r="E158" s="80" t="n">
         <v>26</v>
       </c>
-      <c r="J150" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" s="73"/>
-      <c r="P150" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="n">
+      <c r="J158" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D151" s="78" t="n">
+      <c r="D159" s="80" t="n">
         <v>19</v>
       </c>
-      <c r="E151" s="78" t="n">
+      <c r="E159" s="80" t="n">
         <v>26</v>
       </c>
-      <c r="J151" s="7" t="n">
+      <c r="J159" s="7" t="n">
         <v>0.307692</v>
       </c>
-      <c r="K151" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" s="7" t="n">
+      <c r="K159" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" s="7" t="n">
         <v>0.153846</v>
       </c>
-      <c r="M151" s="73" t="n">
+      <c r="M159" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N151" s="7" t="n">
+      <c r="N159" s="7" t="n">
         <v>0.04954</v>
       </c>
-      <c r="O151" s="73"/>
-      <c r="P151" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="n">
+      <c r="P159" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D160" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E160" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="J152" s="7" t="n">
+      <c r="J160" s="7" t="n">
         <v>0.108108</v>
       </c>
-      <c r="K152" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" s="7" t="n">
+      <c r="K160" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" s="7" t="n">
         <v>0.216216</v>
       </c>
-      <c r="M152" s="73" t="n">
+      <c r="M160" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="N152" s="7" t="n">
+      <c r="N160" s="7" t="n">
         <v>0.1081</v>
       </c>
-      <c r="O152" s="73"/>
-      <c r="P152" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="n">
+      <c r="P160" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D161" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E161" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="J153" s="7" t="n">
+      <c r="J161" s="7" t="n">
         <v>0.30769</v>
       </c>
-      <c r="K153" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" s="7" t="n">
+      <c r="K161" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" s="7" t="n">
         <v>0.230769</v>
       </c>
-      <c r="M153" s="73" t="n">
+      <c r="M161" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="N153" s="7" t="n">
+      <c r="N161" s="7" t="n">
         <v>0.03519</v>
       </c>
-      <c r="O153" s="73"/>
-      <c r="P153" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="n">
+      <c r="P161" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D154" s="78" t="n">
+      <c r="D162" s="80" t="n">
         <v>19</v>
       </c>
-      <c r="E154" s="78" t="n">
+      <c r="E162" s="80" t="n">
         <v>26</v>
       </c>
-      <c r="J154" s="7" t="n">
+      <c r="J162" s="7" t="n">
         <v>0.2564</v>
       </c>
-      <c r="K154" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" s="7" t="n">
+      <c r="K162" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" s="7" t="n">
         <v>0.1474358</v>
       </c>
-      <c r="M154" s="0" t="n">
+      <c r="M162" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="N154" s="7" t="n">
+      <c r="N162" s="7" t="n">
         <v>0.03742</v>
       </c>
-      <c r="O154" s="73"/>
-      <c r="P154" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="n">
+      <c r="P162" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="n">
         <v>-147</v>
       </c>
-      <c r="D155" s="78" t="n">
+      <c r="D163" s="80" t="n">
         <v>19</v>
       </c>
-      <c r="E155" s="78" t="n">
+      <c r="E163" s="80" t="n">
         <v>26</v>
       </c>
-      <c r="J155" s="7" t="n">
+      <c r="J163" s="7" t="n">
         <v>0.201149</v>
       </c>
-      <c r="K155" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" s="7" t="n">
+      <c r="K163" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" s="7" t="n">
         <v>0.2011494</v>
       </c>
-      <c r="M155" s="0" t="n">
+      <c r="M163" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="N155" s="7" t="n">
+      <c r="N163" s="7" t="n">
         <v>0.04012</v>
       </c>
-      <c r="O155" s="73"/>
-      <c r="P155" s="0" t="s">
-        <v>207</v>
+      <c r="P163" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -12231,7 +12420,7 @@
     <mergeCell ref="B72:J72"/>
     <mergeCell ref="B94:L94"/>
     <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B139:J139"/>
+    <mergeCell ref="B147:J147"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
